--- a/RUDN/Importance/Varible_f_reg_in_Middle Africa.xlsx
+++ b/RUDN/Importance/Varible_f_reg_in_Middle Africa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
   <si>
     <t>F-value</t>
   </si>
@@ -22,73 +22,118 @@
     <t>p-value</t>
   </si>
   <si>
+    <t>Survival to age 65, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000)</t>
+  </si>
+  <si>
     <t>Mortality rate, under-5 (per 1,000 live births)</t>
   </si>
   <si>
-    <t>Mortality rate, under-5 (per 1,000)</t>
-  </si>
-  <si>
     <t>Mortality rate, infant (per 1,000 live births)</t>
   </si>
   <si>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
+  </si>
+  <si>
     <t>Mortality rate, neonatal (per 1,000 live births)</t>
   </si>
   <si>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+  </si>
+  <si>
     <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Lifetime risk of maternal death (%)</t>
+  </si>
+  <si>
     <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Prevalence of overweight, female (% of female adults)</t>
+  </si>
+  <si>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Internet users (per 100 people)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, male (% of male adults)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among children (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+  </si>
+  <si>
     <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Prevalence of anemia among children (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Internet users (per 100 people)</t>
-  </si>
-  <si>
     <t>Rural population (% of total population)</t>
   </si>
   <si>
     <t>Urban population (% of total)</t>
   </si>
   <si>
+    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
+    <t>Unemployment, female (% of female labor force)</t>
   </si>
   <si>
     <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Unemployment, female (% of female labor force)</t>
-  </si>
-  <si>
     <t>Unemployment, total (% of total labor force)</t>
   </si>
   <si>
+    <t>Immunization, BCG (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
+  </si>
+  <si>
     <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
-  </si>
-  <si>
     <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Unemployment, male (% of male labor force)</t>
   </si>
   <si>
-    <t>Immunization, BCG (% of one-year-old children)</t>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
+    <t>Forest area (% of land area)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services (% of population)</t>
   </si>
   <si>
     <t>Immunization, DPT (% of children ages 12-23 months)</t>
@@ -97,15 +142,27 @@
     <t>Country_code</t>
   </si>
   <si>
+    <t>School enrollment, tertiary (% gross)</t>
+  </si>
+  <si>
     <t>Population ages 80 and older, male (% of male population)</t>
   </si>
   <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Improved water source (% of population with access)</t>
+  </si>
+  <si>
     <t>Mobile cellular subscriptions (per 100 people)</t>
   </si>
   <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
-  </si>
-  <si>
     <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
@@ -115,12 +172,18 @@
     <t>Labor force, female (% of total labor force)</t>
   </si>
   <si>
-    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
-  </si>
-  <si>
     <t>Population ages 80 and older, female (% of female population)</t>
   </si>
   <si>
+    <t>School enrollment, secondary, female (% net)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% net)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% net)</t>
+  </si>
+  <si>
     <t>Prevalence of HIV, male (% ages 15-24)</t>
   </si>
   <si>
@@ -139,6 +202,9 @@
     <t>Gross capital formation (% of GDP)</t>
   </si>
   <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
     <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
   </si>
   <si>
@@ -148,6 +214,9 @@
     <t>Access to anti-retroviral drugs, male (%)</t>
   </si>
   <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
     <t>Trade (% of GDP)</t>
   </si>
   <si>
@@ -157,58 +226,73 @@
     <t>PPP conversion factor, private consumption (LCU per international $)</t>
   </si>
   <si>
+    <t>Population ages 75-79, male (% of male population)</t>
+  </si>
+  <si>
     <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Population ages 75-79, male (% of male population)</t>
+    <t>Improved water source, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Birth rate, crude (per 1,000 people)</t>
   </si>
   <si>
     <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>School enrollment, secondary, female (% net)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% net)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% net)</t>
+    <t>Net ODA received per capita (current US$)</t>
   </si>
   <si>
     <t>Number of people who are undernourished</t>
   </si>
   <si>
+    <t>Population ages 75-79, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, female</t>
+  </si>
+  <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, male</t>
+  </si>
+  <si>
+    <t>Immunization, HepB3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Population ages 35-39, female (% of female population)</t>
   </si>
   <si>
-    <t>Population ages 75-79, female (% of female population)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (% gross)</t>
-  </si>
-  <si>
-    <t>Immunization, HepB3 (% of one-year-old children)</t>
-  </si>
-  <si>
     <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, female</t>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Number of maternal deaths</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, female (% of female population)</t>
   </si>
   <si>
     <t>Population ages 40-44, female (% of female population)</t>
   </si>
   <si>
-    <t>Children out of school, primary, male</t>
-  </si>
-  <si>
-    <t>Number of maternal deaths</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, female (% of female population)</t>
+    <t>Total debt service (% of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
   </si>
   <si>
     <t>Population ages 00-04, female (% of female population)</t>
@@ -217,46 +301,88 @@
     <t>Population ages 25-29, female (% of female population)</t>
   </si>
   <si>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Rural population growth (annual %)</t>
+  </si>
+  <si>
     <t>Population ages 00-14, female (% of total)</t>
   </si>
   <si>
+    <t>Prevalence of syphilis (% of women attending antenatal care)</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
     <t>Population ages 35-39, male (% of male population)</t>
   </si>
   <si>
-    <t>Rural population growth (annual %)</t>
+    <t>Number of under-five deaths</t>
+  </si>
+  <si>
+    <t>AIDS estimated deaths (UNAIDS estimates)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female (% of total)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Children orphaned by HIV/AIDS</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, female (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female (% of total)</t>
   </si>
   <si>
     <t>Population ages 45-49, female (% of female population)</t>
   </si>
   <si>
-    <t>Population ages 15-64, female (% of total)</t>
+    <t>Population ages 65 and above (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male (% of total)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Number of infant deaths</t>
+  </si>
+  <si>
+    <t>GDP per person employed (constant 2011 PPP $)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Primary education, pupils (% female)</t>
   </si>
   <si>
     <t>Population ages 40-44, male (% of male population)</t>
   </si>
   <si>
-    <t>Number of under-five deaths</t>
-  </si>
-  <si>
-    <t>Total debt service (% of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, male (% of male population)</t>
-  </si>
-  <si>
-    <t>AIDS estimated deaths (UNAIDS estimates)</t>
-  </si>
-  <si>
-    <t>GDP per person employed (constant 2011 PPP $)</t>
-  </si>
-  <si>
-    <t>Number of infant deaths</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, female (% of total)</t>
-  </si>
-  <si>
-    <t>Children orphaned by HIV/AIDS</t>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
+    <t>GNI per capita, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
   </si>
   <si>
     <t>Population ages 0-14 (% of total)</t>
@@ -265,58 +391,100 @@
     <t>Population ages 00-14 (% of total)</t>
   </si>
   <si>
-    <t>GNI per capita, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above (% of total)</t>
+    <t>School enrollment, primary, male (% gross)</t>
   </si>
   <si>
     <t>Children (ages 0-14) newly infected with HIV</t>
   </si>
   <si>
+    <t>Population ages 70-74, male (% of male population)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% gross)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
+  </si>
+  <si>
     <t>Age dependency ratio, young</t>
   </si>
   <si>
+    <t>Age dependency ratio, old</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, female (% of female population)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Net official development assistance and official aid received (current US$)</t>
+  </si>
+  <si>
+    <t>Net official development assistance received (current US$)</t>
+  </si>
+  <si>
+    <t>Number of neonatal deaths</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 10-14, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, primary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Rural population</t>
+  </si>
+  <si>
+    <t>Urban population growth (annual %)</t>
+  </si>
+  <si>
+    <t>GNI per capita, PPP (current international $)</t>
+  </si>
+  <si>
+    <t>Children (0-14) living with HIV</t>
+  </si>
+  <si>
+    <t>Years</t>
+  </si>
+  <si>
     <t>Status under enhanced HIPC initiative</t>
   </si>
   <si>
-    <t>Population ages 65 and above, male (% of total)</t>
-  </si>
-  <si>
-    <t>Net official development assistance received (current US$)</t>
-  </si>
-  <si>
-    <t>Net official development assistance and official aid received (current US$)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
-  </si>
-  <si>
-    <t>Population ages 10-14, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Number of neonatal deaths</t>
-  </si>
-  <si>
-    <t>Years</t>
-  </si>
-  <si>
     <t>Age dependency ratio (% of working-age population)</t>
   </si>
   <si>
-    <t>GNI per capita, PPP (current international $)</t>
+    <t>Persistence to last grade of primary, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, total (% of cohort)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, rural (% of rural population)</t>
   </si>
   <si>
     <t>Proportion of seats held by women in national parliaments (%)</t>
@@ -325,61 +493,40 @@
     <t>Population ages 15-64 (% of total)</t>
   </si>
   <si>
+    <t>Population ages 00-14, male (% of total)</t>
+  </si>
+  <si>
     <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
   </si>
   <si>
-    <t>Fixed telephone subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Rural population</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, male (% of total)</t>
-  </si>
-  <si>
-    <t>Children (0-14) living with HIV</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, old</t>
-  </si>
-  <si>
-    <t>Urban population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Prevalence of syphilis (% of women attending antenatal care)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, female (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, male (% gross)</t>
-  </si>
-  <si>
     <t>Population ages 30-34, male (% of male population)</t>
   </si>
   <si>
     <t>Population ages 60-64, male (% of male population)</t>
   </si>
   <si>
-    <t>Population ages 15-64, male (% of total)</t>
-  </si>
-  <si>
     <t>Male population 65-69</t>
   </si>
   <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
+    <t>Primary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
   </si>
   <si>
     <t>Female population 65-69</t>
+  </si>
+  <si>
+    <t>Primary completion rate, total (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Government expenditure on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Public spending on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
   </si>
 </sst>
 </file>
@@ -737,7 +884,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C121"/>
+  <dimension ref="A1:C170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -756,7 +903,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>830.7128546843933</v>
+        <v>8544.014979632009</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -767,7 +914,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>830.7128546843933</v>
+        <v>2680.81319920054</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -778,7 +925,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>814.9332986424419</v>
+        <v>2014.995886467424</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -789,7 +936,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>455.6838951695474</v>
+        <v>1284.231874457454</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -800,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>223.9639001887878</v>
+        <v>757.7024052463452</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -811,7 +958,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>207.3347904486305</v>
+        <v>757.7024052463452</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -822,7 +969,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>166.3160546705151</v>
+        <v>734.2464681575348</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -833,7 +980,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>159.1207101950353</v>
+        <v>579.0394293118965</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -844,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>122.4284251124447</v>
+        <v>476.1994712573843</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -855,7 +1002,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>118.8334963284391</v>
+        <v>417.06915148813</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -866,7 +1013,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>117.0449144151415</v>
+        <v>236.374309093464</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -877,7 +1024,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>116.8396108783351</v>
+        <v>214.1958210951655</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -888,7 +1035,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>116.8396108783329</v>
+        <v>197.0949961604189</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -899,7 +1046,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>112.3502515730214</v>
+        <v>159.1871051306775</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -910,7 +1057,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>111.323552704979</v>
+        <v>158.9176993782416</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -921,7 +1068,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>108.960298639854</v>
+        <v>151.4228292533928</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -932,7 +1079,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>108.960298639854</v>
+        <v>135.8146793953248</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -943,7 +1090,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>103.8551169962377</v>
+        <v>120.2049620895071</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -954,7 +1101,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>95.25250501327749</v>
+        <v>118.4842006065117</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -965,7 +1112,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>90.05779611518746</v>
+        <v>118.1503222897024</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -976,7 +1123,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>88.11933859171211</v>
+        <v>117.4609816754743</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -987,7 +1134,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>88.11933859171211</v>
+        <v>117.3639244716746</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -998,7 +1145,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>87.00377786105227</v>
+        <v>114.7491376617195</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1009,7 +1156,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>76.60860700170007</v>
+        <v>105.8720344394535</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1020,7 +1167,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>71.56494477508161</v>
+        <v>105.8720344394481</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1031,7 +1178,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>70.85074531116254</v>
+        <v>104.5831525086469</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1042,7 +1189,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>70.21752209964163</v>
+        <v>104.4963193308674</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1053,7 +1200,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>64.80327511998374</v>
+        <v>102.9891191604763</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1064,7 +1211,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>63.46631569256932</v>
+        <v>102.9891191604763</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1075,7 +1222,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>63.29217531071403</v>
+        <v>97.96608196567098</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1086,7 +1233,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>61.32260641628854</v>
+        <v>95.0411469918059</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1097,7 +1244,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>61.1445616881314</v>
+        <v>88.36684653473802</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1108,7 +1255,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>57.78235953411176</v>
+        <v>88.28162875969444</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1119,7 +1266,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>55.63832990155352</v>
+        <v>82.35898107036491</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1130,7 +1277,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>55.6259034674399</v>
+        <v>82.35898107036491</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1141,7 +1288,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>55.6122512929509</v>
+        <v>79.36702494504846</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1152,7 +1299,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>55.39412710158784</v>
+        <v>77.8335466798422</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1163,7 +1310,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>54.25694828833233</v>
+        <v>77.68887763328495</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1174,7 +1321,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>54.12277568551434</v>
+        <v>72.89459932686272</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1185,7 +1332,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>51.54151164188877</v>
+        <v>69.7277977362658</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1196,7 +1343,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>51.39620330258496</v>
+        <v>68.66789707542382</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1207,7 +1354,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>51.22894429669805</v>
+        <v>66.38000755197039</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1218,7 +1365,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>49.33938770914586</v>
+        <v>66.09006084950828</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1229,7 +1376,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>47.42587917067907</v>
+        <v>65.51745142644808</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1240,7 +1387,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>43.94759296170367</v>
+        <v>61.57730931556286</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1251,7 +1398,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>43.86808625023471</v>
+        <v>61.04298277513352</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1262,7 +1409,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>41.77178502688591</v>
+        <v>59.53572277693757</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1273,7 +1420,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>39.57305008246338</v>
+        <v>58.95854043605375</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1284,7 +1431,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>36.26612964472001</v>
+        <v>58.48177549636263</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1295,7 +1442,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>36.26445809229952</v>
+        <v>58.01743924478367</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1306,7 +1453,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>36.26272148823224</v>
+        <v>54.57776541280237</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1317,7 +1464,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>35.47088349063488</v>
+        <v>53.90212457531423</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1328,7 +1475,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>32.7138779048202</v>
+        <v>53.89847167496045</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1339,7 +1486,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>29.64799111895136</v>
+        <v>53.89470635769933</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1350,7 +1497,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>28.48297643201199</v>
+        <v>53.77371408501634</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1361,7 +1508,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>27.65723401883656</v>
+        <v>53.76329153162431</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1372,7 +1519,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>27.27039857174121</v>
+        <v>53.74488213213446</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1383,7 +1530,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>25.65244286790028</v>
+        <v>53.51594499773242</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1394,7 +1541,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>25.20348326677507</v>
+        <v>52.45504918435537</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1405,7 +1552,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>23.87526798834671</v>
+        <v>52.20810167425516</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1416,7 +1563,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>23.44937851725083</v>
+        <v>50.6318800349793</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1427,10 +1574,10 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>23.2772878749059</v>
+        <v>50.36615466309611</v>
       </c>
       <c r="C63">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1438,10 +1585,10 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>20.64524316392569</v>
+        <v>50.29231490645893</v>
       </c>
       <c r="C64">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1449,10 +1596,10 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>19.69102224504808</v>
+        <v>49.95397902343983</v>
       </c>
       <c r="C65">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1460,10 +1607,10 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>18.99083905234385</v>
+        <v>49.53350808011907</v>
       </c>
       <c r="C66">
-        <v>3e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1471,10 +1618,10 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>17.88511623181521</v>
+        <v>47.06627388707955</v>
       </c>
       <c r="C67">
-        <v>5e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1482,10 +1629,10 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>17.72133332060005</v>
+        <v>45.99152070905648</v>
       </c>
       <c r="C68">
-        <v>6e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1493,10 +1640,10 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>16.89867384837515</v>
+        <v>44.34542979667705</v>
       </c>
       <c r="C69">
-        <v>8.000000000000001e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1504,10 +1651,10 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>16.40845762799719</v>
+        <v>42.34479597774963</v>
       </c>
       <c r="C70">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1515,10 +1662,10 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>16.30957893914799</v>
+        <v>40.61732122152802</v>
       </c>
       <c r="C71">
-        <v>0.00011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1526,10 +1673,10 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>15.41308006175941</v>
+        <v>37.2084847384664</v>
       </c>
       <c r="C72">
-        <v>0.00016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1537,10 +1684,10 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>15.30155779555513</v>
+        <v>36.22836775111359</v>
       </c>
       <c r="C73">
-        <v>0.00017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1548,10 +1695,10 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>14.56202848944005</v>
+        <v>36.04085598947946</v>
       </c>
       <c r="C74">
-        <v>0.00024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1559,10 +1706,10 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>14.3727441698024</v>
+        <v>35.66013949719545</v>
       </c>
       <c r="C75">
-        <v>0.00026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1570,10 +1717,10 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>14.07368299669989</v>
+        <v>33.63474387273348</v>
       </c>
       <c r="C76">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1581,10 +1728,10 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>14.00192682959783</v>
+        <v>29.81987264337775</v>
       </c>
       <c r="C77">
-        <v>0.00031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1592,10 +1739,10 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>13.67346461389091</v>
+        <v>29.46892287291849</v>
       </c>
       <c r="C78">
-        <v>0.00036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1603,10 +1750,10 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>13.23084694026598</v>
+        <v>28.30022119680195</v>
       </c>
       <c r="C79">
-        <v>0.00045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1614,10 +1761,10 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>13.22676880079344</v>
+        <v>27.72878536589197</v>
       </c>
       <c r="C80">
-        <v>0.00045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1625,10 +1772,10 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>13.02861460899633</v>
+        <v>26.90480114396653</v>
       </c>
       <c r="C81">
-        <v>0.00049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1636,10 +1783,10 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>13.02861460899633</v>
+        <v>25.36611768086865</v>
       </c>
       <c r="C82">
-        <v>0.00049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1647,10 +1794,10 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>13.02648752252072</v>
+        <v>25.14531887896946</v>
       </c>
       <c r="C83">
-        <v>0.00049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1658,10 +1805,10 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>12.8797563914153</v>
+        <v>24.72267097322595</v>
       </c>
       <c r="C84">
-        <v>0.00053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1669,10 +1816,10 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>12.87936382961285</v>
+        <v>24.55199016465363</v>
       </c>
       <c r="C85">
-        <v>0.00053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1680,10 +1827,10 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>12.72203028653436</v>
+        <v>22.75465052763868</v>
       </c>
       <c r="C86">
-        <v>0.00057</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1691,10 +1838,10 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>12.65500875038885</v>
+        <v>21.61066518735494</v>
       </c>
       <c r="C87">
-        <v>0.00058</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1702,10 +1849,10 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>12.20696114017074</v>
+        <v>20.13850375253514</v>
       </c>
       <c r="C88">
-        <v>0.00072</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1713,10 +1860,10 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>12.16992757204848</v>
+        <v>18.58052529172535</v>
       </c>
       <c r="C89">
-        <v>0.00073</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1724,10 +1871,10 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>12.13598926671543</v>
+        <v>18.48665887484638</v>
       </c>
       <c r="C90">
-        <v>0.00075</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1735,10 +1882,10 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>12.02938657387028</v>
+        <v>17.76676791002777</v>
       </c>
       <c r="C91">
-        <v>0.00079</v>
+        <v>6e-05</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1746,10 +1893,10 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>11.6789157074207</v>
+        <v>17.15591812742381</v>
       </c>
       <c r="C92">
-        <v>0.0009300000000000001</v>
+        <v>8.000000000000001e-05</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1757,10 +1904,10 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>11.6789157074207</v>
+        <v>16.9551217336861</v>
       </c>
       <c r="C93">
-        <v>0.0009300000000000001</v>
+        <v>9.000000000000001e-05</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1768,10 +1915,10 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>11.64349927888535</v>
+        <v>16.81659872718702</v>
       </c>
       <c r="C94">
-        <v>0.00094</v>
+        <v>9.000000000000001e-05</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1779,10 +1926,10 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>11.2633184877529</v>
+        <v>16.65827848130966</v>
       </c>
       <c r="C95">
-        <v>0.00113</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1790,10 +1937,10 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>10.80116333159873</v>
+        <v>15.84200069403574</v>
       </c>
       <c r="C96">
-        <v>0.00142</v>
+        <v>0.00014</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1801,10 +1948,10 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>10.74141827944286</v>
+        <v>15.67938703697249</v>
       </c>
       <c r="C97">
-        <v>0.00146</v>
+        <v>0.00015</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1812,10 +1959,10 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>10.71678139045216</v>
+        <v>15.21786231307176</v>
       </c>
       <c r="C98">
-        <v>0.00148</v>
+        <v>0.00019</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1823,10 +1970,10 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>10.65442570025413</v>
+        <v>14.84244511894024</v>
       </c>
       <c r="C99">
-        <v>0.00152</v>
+        <v>0.00022</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1834,10 +1981,10 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>10.51238602212636</v>
+        <v>14.54458622957643</v>
       </c>
       <c r="C100">
-        <v>0.00163</v>
+        <v>0.00025</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1845,10 +1992,10 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>10.48145670556952</v>
+        <v>14.10986738013749</v>
       </c>
       <c r="C101">
-        <v>0.00166</v>
+        <v>0.00031</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1856,10 +2003,10 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>10.4059118628443</v>
+        <v>13.82962821286473</v>
       </c>
       <c r="C102">
-        <v>0.00172</v>
+        <v>0.00035</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1867,10 +2014,10 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>10.00833430458148</v>
+        <v>13.72518791066268</v>
       </c>
       <c r="C103">
-        <v>0.00209</v>
+        <v>0.00037</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1878,10 +2025,10 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>9.911030336379721</v>
+        <v>13.61204855756607</v>
       </c>
       <c r="C104">
-        <v>0.00219</v>
+        <v>0.00039</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1889,10 +2036,10 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>9.706652227739339</v>
+        <v>13.54325367723171</v>
       </c>
       <c r="C105">
-        <v>0.00242</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1900,10 +2047,10 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>9.525833604795427</v>
+        <v>13.50170937341493</v>
       </c>
       <c r="C106">
-        <v>0.00265</v>
+        <v>0.00041</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1911,10 +2058,10 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>9.444304510098165</v>
+        <v>13.49209009688138</v>
       </c>
       <c r="C107">
-        <v>0.00276</v>
+        <v>0.00041</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1922,10 +2069,10 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>9.307109797085024</v>
+        <v>13.44869331338768</v>
       </c>
       <c r="C108">
-        <v>0.00295</v>
+        <v>0.00042</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1933,10 +2080,10 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>8.854959285278886</v>
+        <v>13.39982080556831</v>
       </c>
       <c r="C109">
-        <v>0.0037</v>
+        <v>0.00043</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1944,10 +2091,10 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>8.627034603524967</v>
+        <v>13.38792471574984</v>
       </c>
       <c r="C110">
-        <v>0.00415</v>
+        <v>0.00043</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1955,10 +2102,10 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>8.481507262477985</v>
+        <v>13.02789045388583</v>
       </c>
       <c r="C111">
-        <v>0.00446</v>
+        <v>0.00051</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1966,10 +2113,10 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>8.360896188652694</v>
+        <v>12.7571777869536</v>
       </c>
       <c r="C112">
-        <v>0.00474</v>
+        <v>0.00057</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1977,10 +2124,10 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>8.354078230366319</v>
+        <v>12.68859256404075</v>
       </c>
       <c r="C113">
-        <v>0.00476</v>
+        <v>0.00059</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1988,10 +2135,10 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>8.28122191485817</v>
+        <v>12.686893920022</v>
       </c>
       <c r="C114">
-        <v>0.00494</v>
+        <v>0.00059</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1999,10 +2146,10 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>8.274504682671633</v>
+        <v>12.621869086005</v>
       </c>
       <c r="C115">
-        <v>0.00495</v>
+        <v>0.00061</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2010,10 +2157,10 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>8.250138138120713</v>
+        <v>12.47862908107808</v>
       </c>
       <c r="C116">
-        <v>0.00502</v>
+        <v>0.00065</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2021,10 +2168,10 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>7.80003556489048</v>
+        <v>12.13718609465752</v>
       </c>
       <c r="C117">
-        <v>0.00631</v>
+        <v>0.00077</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2032,10 +2179,10 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>7.435200794706994</v>
+        <v>12.13502666065741</v>
       </c>
       <c r="C118">
-        <v>0.0076</v>
+        <v>0.00077</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2043,10 +2190,10 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>7.270208118514959</v>
+        <v>11.83399537192615</v>
       </c>
       <c r="C119">
-        <v>0.008279999999999999</v>
+        <v>0.0008899999999999999</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2054,10 +2201,10 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>7.224381128525851</v>
+        <v>11.82976366539215</v>
       </c>
       <c r="C120">
-        <v>0.00848</v>
+        <v>0.0008899999999999999</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2065,10 +2212,549 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>6.910129256343231</v>
+        <v>11.70672127942383</v>
       </c>
       <c r="C121">
-        <v>0.009979999999999999</v>
+        <v>0.00094</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B122">
+        <v>11.7064973208696</v>
+      </c>
+      <c r="C122">
+        <v>0.00094</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123">
+        <v>11.566984594899</v>
+      </c>
+      <c r="C123">
+        <v>0.00101</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124">
+        <v>11.566984594899</v>
+      </c>
+      <c r="C124">
+        <v>0.00101</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B125">
+        <v>11.27290856990233</v>
+      </c>
+      <c r="C125">
+        <v>0.00116</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B126">
+        <v>11.1862392037335</v>
+      </c>
+      <c r="C126">
+        <v>0.00121</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B127">
+        <v>11.02438033260687</v>
+      </c>
+      <c r="C127">
+        <v>0.0013</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B128">
+        <v>10.82804948854275</v>
+      </c>
+      <c r="C128">
+        <v>0.00143</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B129">
+        <v>10.77206231758326</v>
+      </c>
+      <c r="C129">
+        <v>0.00147</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B130">
+        <v>10.62017753091255</v>
+      </c>
+      <c r="C130">
+        <v>0.00158</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B131">
+        <v>10.62017753091255</v>
+      </c>
+      <c r="C131">
+        <v>0.00158</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B132">
+        <v>10.61967668264834</v>
+      </c>
+      <c r="C132">
+        <v>0.00159</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B133">
+        <v>10.57678167914714</v>
+      </c>
+      <c r="C133">
+        <v>0.00162</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B134">
+        <v>10.46809840345003</v>
+      </c>
+      <c r="C134">
+        <v>0.00171</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B135">
+        <v>10.30206199472347</v>
+      </c>
+      <c r="C135">
+        <v>0.00185</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B136">
+        <v>10.28013600086713</v>
+      </c>
+      <c r="C136">
+        <v>0.00187</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B137">
+        <v>10.26770498306681</v>
+      </c>
+      <c r="C137">
+        <v>0.00188</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B138">
+        <v>10.26770498306681</v>
+      </c>
+      <c r="C138">
+        <v>0.00188</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B139">
+        <v>10.20474429963195</v>
+      </c>
+      <c r="C139">
+        <v>0.00194</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140">
+        <v>10.04197444399225</v>
+      </c>
+      <c r="C140">
+        <v>0.0021</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B141">
+        <v>9.988166575894844</v>
+      </c>
+      <c r="C141">
+        <v>0.00215</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B142">
+        <v>9.695595255991298</v>
+      </c>
+      <c r="C142">
+        <v>0.00248</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143">
+        <v>9.682690505825979</v>
+      </c>
+      <c r="C143">
+        <v>0.0025</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144">
+        <v>9.614568720990784</v>
+      </c>
+      <c r="C144">
+        <v>0.00259</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145">
+        <v>9.507978489607023</v>
+      </c>
+      <c r="C145">
+        <v>0.00272</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146">
+        <v>9.307241583820906</v>
+      </c>
+      <c r="C146">
+        <v>0.00301</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147">
+        <v>9.145174203377154</v>
+      </c>
+      <c r="C147">
+        <v>0.00326</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148">
+        <v>9.11224080583994</v>
+      </c>
+      <c r="C148">
+        <v>0.00331</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149">
+        <v>9.089254133887048</v>
+      </c>
+      <c r="C149">
+        <v>0.00335</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150">
+        <v>9.016129352468027</v>
+      </c>
+      <c r="C150">
+        <v>0.00347</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151">
+        <v>8.938353435589184</v>
+      </c>
+      <c r="C151">
+        <v>0.00361</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152">
+        <v>8.912970619347526</v>
+      </c>
+      <c r="C152">
+        <v>0.00366</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153">
+        <v>8.91199197892769</v>
+      </c>
+      <c r="C153">
+        <v>0.00366</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154">
+        <v>8.875974592716823</v>
+      </c>
+      <c r="C154">
+        <v>0.00372</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155">
+        <v>8.856770291238988</v>
+      </c>
+      <c r="C155">
+        <v>0.00376</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156">
+        <v>8.842485337983623</v>
+      </c>
+      <c r="C156">
+        <v>0.00379</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B157">
+        <v>8.823707030315029</v>
+      </c>
+      <c r="C157">
+        <v>0.00382</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158">
+        <v>8.789478304292183</v>
+      </c>
+      <c r="C158">
+        <v>0.00389</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B159">
+        <v>8.521328087435093</v>
+      </c>
+      <c r="C159">
+        <v>0.00444</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B160">
+        <v>8.353417529585396</v>
+      </c>
+      <c r="C160">
+        <v>0.00484</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B161">
+        <v>8.134102207531273</v>
+      </c>
+      <c r="C161">
+        <v>0.0054</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B162">
+        <v>7.84949498274689</v>
+      </c>
+      <c r="C162">
+        <v>0.00624</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B163">
+        <v>7.527291938651016</v>
+      </c>
+      <c r="C163">
+        <v>0.00735</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B164">
+        <v>7.493716340802719</v>
+      </c>
+      <c r="C164">
+        <v>0.00748</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B165">
+        <v>7.423508256168281</v>
+      </c>
+      <c r="C165">
+        <v>0.00775</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B166">
+        <v>7.151112675742831</v>
+      </c>
+      <c r="C166">
+        <v>0.00891</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B167">
+        <v>7.145851649383326</v>
+      </c>
+      <c r="C167">
+        <v>0.00894</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B168">
+        <v>7.114801589352854</v>
+      </c>
+      <c r="C168">
+        <v>0.00908</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B169">
+        <v>7.114801589352854</v>
+      </c>
+      <c r="C169">
+        <v>0.00908</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B170">
+        <v>7.044378943120043</v>
+      </c>
+      <c r="C170">
+        <v>0.00942</v>
       </c>
     </row>
   </sheetData>
